--- a/Design/design.xlsx
+++ b/Design/design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963E87BB-5425-4B7C-8BB9-A2A4DA17BFC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596008FA-F96A-4D06-827D-86BF53F68663}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="399">
   <si>
     <t>简化版的重点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1537,6 +1537,70 @@
   </si>
   <si>
     <t>行动卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据管理器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁了哪些角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含哪些技能卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色改造数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能卡数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集了哪些技能卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集了哪些道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能的临时数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能卡的原始数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗时的数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1913,16 +1977,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA75"/>
+  <dimension ref="A1:AA83"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:C23"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="S80" sqref="S80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="11" max="11" width="10.875" customWidth="1"/>
+    <col min="21" max="21" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -2246,7 +2311,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="8:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="8:22" x14ac:dyDescent="0.2">
       <c r="H65" t="s">
         <v>80</v>
       </c>
@@ -2257,54 +2322,112 @@
         <v>82</v>
       </c>
     </row>
-    <row r="66" spans="8:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="8:22" x14ac:dyDescent="0.2">
       <c r="L66" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="8:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="8:22" x14ac:dyDescent="0.2">
       <c r="L67" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="68" spans="8:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="8:22" x14ac:dyDescent="0.2">
       <c r="L68" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="69" spans="8:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="8:22" x14ac:dyDescent="0.2">
       <c r="L69" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="70" spans="8:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="8:22" x14ac:dyDescent="0.2">
       <c r="L70" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="71" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="R70" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="71" spans="8:22" x14ac:dyDescent="0.2">
       <c r="L71" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="8:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="8:22" x14ac:dyDescent="0.2">
       <c r="L72" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="73" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="R72" t="s">
+        <v>387</v>
+      </c>
+      <c r="U72" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="73" spans="8:22" x14ac:dyDescent="0.2">
       <c r="L73" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="74" spans="8:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="8:22" x14ac:dyDescent="0.2">
       <c r="L74" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="75" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="R74" t="s">
+        <v>384</v>
+      </c>
+      <c r="S74" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="75" spans="8:22" x14ac:dyDescent="0.2">
       <c r="L75" s="4" t="s">
         <v>87</v>
+      </c>
+      <c r="S75" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="76" spans="8:22" x14ac:dyDescent="0.2">
+      <c r="U76" t="s">
+        <v>386</v>
+      </c>
+      <c r="V76" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="77" spans="8:22" x14ac:dyDescent="0.2">
+      <c r="R77" t="s">
+        <v>392</v>
+      </c>
+      <c r="S77" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="78" spans="8:22" x14ac:dyDescent="0.2">
+      <c r="S78" t="s">
+        <v>394</v>
+      </c>
+      <c r="U78" t="s">
+        <v>391</v>
+      </c>
+      <c r="V78" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="79" spans="8:22" x14ac:dyDescent="0.2">
+      <c r="S79" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="83" spans="18:19" x14ac:dyDescent="0.2">
+      <c r="R83" t="s">
+        <v>395</v>
+      </c>
+      <c r="S83" t="s">
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -3198,7 +3321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{932E23D5-D3A7-42A6-9384-FC997842D65A}">
   <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>

--- a/Design/design.xlsx
+++ b/Design/design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596008FA-F96A-4D06-827D-86BF53F68663}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9EE218F-DB92-4C65-BC1B-D99922A64AA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1649,7 +1649,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1664,6 +1664,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1688,12 +1694,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -1979,8 +1986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="S80" sqref="S80"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="I71" sqref="I71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3319,10 +3326,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{932E23D5-D3A7-42A6-9384-FC997842D65A}">
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3401,23 +3408,25 @@
         <v>321</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="J17" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J17" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="5" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="J18" t="s">
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J18" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="5" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>283</v>
       </c>
@@ -3434,7 +3443,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>284</v>
       </c>
@@ -3448,7 +3457,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>287</v>
       </c>
@@ -3456,7 +3465,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>288</v>
       </c>
@@ -3464,7 +3473,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>290</v>
       </c>
@@ -3478,7 +3487,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>296</v>
       </c>
@@ -3489,12 +3498,12 @@
         <v>335</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="K25" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>317</v>
       </c>
@@ -3502,7 +3511,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>319</v>
       </c>
@@ -3510,7 +3519,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>318</v>
       </c>
@@ -3524,7 +3533,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>312</v>
       </c>
@@ -3535,12 +3544,12 @@
         <v>338</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="K30" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>297</v>
       </c>
@@ -3548,7 +3557,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>300</v>
       </c>

--- a/Design/design.xlsx
+++ b/Design/design.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9EE218F-DB92-4C65-BC1B-D99922A64AA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29921C8F-6520-4A72-B5DF-2C7BD452E50E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="角色设计" sheetId="5" r:id="rId5"/>
+    <sheet name="框架设计" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -3328,8 +3329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{932E23D5-D3A7-42A6-9384-FC997842D65A}">
   <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3782,4 +3783,20 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3931A0FE-3772-409A-8CC1-A97B12BCFB5E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>